--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cthrc1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.22503754796527</v>
+        <v>5.449420333333333</v>
       </c>
       <c r="H2">
-        <v>4.22503754796527</v>
+        <v>16.348261</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8985142489564721</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8985142489564723</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.208871315151269</v>
+        <v>0.265744</v>
       </c>
       <c r="N2">
-        <v>0.208871315151269</v>
+        <v>0.7972319999999999</v>
       </c>
       <c r="O2">
-        <v>0.09638044617285729</v>
+        <v>0.1034864391735229</v>
       </c>
       <c r="P2">
-        <v>0.09638044617285729</v>
+        <v>0.1034864391735229</v>
       </c>
       <c r="Q2">
-        <v>0.8824891492069987</v>
+        <v>1.448150757061333</v>
       </c>
       <c r="R2">
-        <v>0.8824891492069987</v>
+        <v>13.033356813552</v>
       </c>
       <c r="S2">
-        <v>0.09638044617285729</v>
+        <v>0.09298404017117755</v>
       </c>
       <c r="T2">
-        <v>0.09638044617285729</v>
+        <v>0.09298404017117755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.22503754796527</v>
+        <v>5.449420333333333</v>
       </c>
       <c r="H3">
-        <v>4.22503754796527</v>
+        <v>16.348261</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8985142489564721</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8985142489564723</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.270427202953201</v>
+        <v>0.307583</v>
       </c>
       <c r="N3">
-        <v>0.270427202953201</v>
+        <v>0.922749</v>
       </c>
       <c r="O3">
-        <v>0.1247844609923164</v>
+        <v>0.1197794472135201</v>
       </c>
       <c r="P3">
-        <v>0.1247844609923164</v>
+        <v>0.1197794472135201</v>
       </c>
       <c r="Q3">
-        <v>1.142565086468499</v>
+        <v>1.676149054387667</v>
       </c>
       <c r="R3">
-        <v>1.142565086468499</v>
+        <v>15.085341489489</v>
       </c>
       <c r="S3">
-        <v>0.1247844609923164</v>
+        <v>0.1076235400534774</v>
       </c>
       <c r="T3">
-        <v>0.1247844609923164</v>
+        <v>0.1076235400534774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.449420333333333</v>
+      </c>
+      <c r="H4">
+        <v>16.348261</v>
+      </c>
+      <c r="I4">
+        <v>0.8985142489564721</v>
+      </c>
+      <c r="J4">
+        <v>0.8985142489564723</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.994584333333333</v>
+      </c>
+      <c r="N4">
+        <v>5.983753</v>
+      </c>
+      <c r="O4">
+        <v>0.7767341136129571</v>
+      </c>
+      <c r="P4">
+        <v>0.7767341136129571</v>
+      </c>
+      <c r="Q4">
+        <v>10.86932842261478</v>
+      </c>
+      <c r="R4">
+        <v>97.82395580353301</v>
+      </c>
+      <c r="S4">
+        <v>0.6979066687318173</v>
+      </c>
+      <c r="T4">
+        <v>0.6979066687318173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4.22503754796527</v>
-      </c>
-      <c r="H4">
-        <v>4.22503754796527</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.68785595612011</v>
-      </c>
-      <c r="N4">
-        <v>1.68785595612011</v>
-      </c>
-      <c r="O4">
-        <v>0.7788350928348263</v>
-      </c>
-      <c r="P4">
-        <v>0.7788350928348263</v>
-      </c>
-      <c r="Q4">
-        <v>7.131254790164286</v>
-      </c>
-      <c r="R4">
-        <v>7.131254790164286</v>
-      </c>
-      <c r="S4">
-        <v>0.7788350928348263</v>
-      </c>
-      <c r="T4">
-        <v>0.7788350928348263</v>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.6155033333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.84651</v>
+      </c>
+      <c r="I5">
+        <v>0.1014857510435278</v>
+      </c>
+      <c r="J5">
+        <v>0.1014857510435278</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.265744</v>
+      </c>
+      <c r="N5">
+        <v>0.7972319999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.1034864391735229</v>
+      </c>
+      <c r="P5">
+        <v>0.1034864391735229</v>
+      </c>
+      <c r="Q5">
+        <v>0.1635663178133333</v>
+      </c>
+      <c r="R5">
+        <v>1.47209686032</v>
+      </c>
+      <c r="S5">
+        <v>0.01050239900234533</v>
+      </c>
+      <c r="T5">
+        <v>0.01050239900234533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.6155033333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.84651</v>
+      </c>
+      <c r="I6">
+        <v>0.1014857510435278</v>
+      </c>
+      <c r="J6">
+        <v>0.1014857510435278</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.307583</v>
+      </c>
+      <c r="N6">
+        <v>0.922749</v>
+      </c>
+      <c r="O6">
+        <v>0.1197794472135201</v>
+      </c>
+      <c r="P6">
+        <v>0.1197794472135201</v>
+      </c>
+      <c r="Q6">
+        <v>0.1893183617766666</v>
+      </c>
+      <c r="R6">
+        <v>1.70386525599</v>
+      </c>
+      <c r="S6">
+        <v>0.01215590716004268</v>
+      </c>
+      <c r="T6">
+        <v>0.01215590716004268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.6155033333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.84651</v>
+      </c>
+      <c r="I7">
+        <v>0.1014857510435278</v>
+      </c>
+      <c r="J7">
+        <v>0.1014857510435278</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.994584333333333</v>
+      </c>
+      <c r="N7">
+        <v>5.983753</v>
+      </c>
+      <c r="O7">
+        <v>0.7767341136129571</v>
+      </c>
+      <c r="P7">
+        <v>0.7767341136129571</v>
+      </c>
+      <c r="Q7">
+        <v>1.227673305781111</v>
+      </c>
+      <c r="R7">
+        <v>11.04905975203</v>
+      </c>
+      <c r="S7">
+        <v>0.07882744488113981</v>
+      </c>
+      <c r="T7">
+        <v>0.07882744488113982</v>
       </c>
     </row>
   </sheetData>
